--- a/evaluation/bin/Debug/data/MATRICE_PVV.xlsx
+++ b/evaluation/bin/Debug/data/MATRICE_PVV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feno\Documents\Visual Studio 2012\Projects\evaluation\evaluation\bin\Debug\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A50DF1A-BDEE-439E-8505-FB8AFBCDD3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BDC5D6-D62A-4056-8BEC-A2FC9D523BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,9 +568,6 @@
     <t>88.24%</t>
   </si>
   <si>
-    <t>Contribution individuelle</t>
-  </si>
-  <si>
     <t>DMT</t>
   </si>
   <si>
@@ -589,13 +586,16 @@
     <t>observations</t>
   </si>
   <si>
-    <t>T2B Personnalisation</t>
-  </si>
-  <si>
-    <t>T2B Solution</t>
-  </si>
-  <si>
     <t>Taux_d_absentéisme</t>
+  </si>
+  <si>
+    <t>Contribution_individuelle</t>
+  </si>
+  <si>
+    <t>T2B_Personnalisation</t>
+  </si>
+  <si>
+    <t>T2B_Solution</t>
   </si>
 </sst>
 </file>
@@ -997,9 +997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1011,7 @@
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="28.28515625" customWidth="1"/>
@@ -1039,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -1060,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
